--- a/New Joinee CheckList.xlsx
+++ b/New Joinee CheckList.xlsx
@@ -106,6 +106,7 @@
 11. Eclipse
 12.Anroid SDK and ADT
 13. SQL LITE Manager
+14.Github Extension
 </t>
   </si>
 </sst>
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -674,7 +675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="204" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
